--- a/test_data/test_datasets_report.xlsx
+++ b/test_data/test_datasets_report.xlsx
@@ -481,22 +481,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239</v>
+        <v>28626</v>
       </c>
       <c r="C2" t="n">
-        <v>245</v>
+        <v>28640</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>86/100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>6405</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>6423</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>83/100</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.3%</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>6407</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>3803</v>
       </c>
       <c r="D4" t="n">
-        <v>-32</v>
+        <v>-2604</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>59.4%</t>
         </is>
       </c>
     </row>
@@ -559,17 +559,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>6402</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-56</v>
+        <v>-6401</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -585,22 +585,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>6395</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9654</v>
       </c>
       <c r="D6" t="n">
-        <v>-50</v>
+        <v>3259</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>151.0%</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>6422</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>6497</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>54/100</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>101.2%</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>6427</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>6427</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -663,17 +663,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>6403</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>6403</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -689,22 +689,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>6386</v>
       </c>
       <c r="C10" t="n">
-        <v>53</v>
+        <v>6385</v>
       </c>
       <c r="D10" t="n">
         <v>-1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -715,22 +715,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>6439</v>
       </c>
       <c r="C11" t="n">
-        <v>73</v>
+        <v>9012</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>2573</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>140.0%</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56</v>
+        <v>6422</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-53</v>
+        <v>-6421</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>6385</v>
       </c>
       <c r="C13" t="n">
-        <v>195</v>
+        <v>15873</v>
       </c>
       <c r="D13" t="n">
-        <v>139</v>
+        <v>9488</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>248.6%</t>
         </is>
       </c>
     </row>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>28626</v>
       </c>
       <c r="C14" t="n">
-        <v>245</v>
+        <v>28640</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>86/100</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>6405</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>6423</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>83/100</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.3%</t>
         </is>
       </c>
     </row>
@@ -845,22 +845,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213</v>
+        <v>25626</v>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>19955</v>
       </c>
       <c r="D16" t="n">
-        <v>-118</v>
+        <v>-5671</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>54/400</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>77.9%</t>
         </is>
       </c>
     </row>
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329</v>
+        <v>38462</v>
       </c>
       <c r="C17" t="n">
-        <v>434</v>
+        <v>44101</v>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>5639</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/6</t>
+          <t>299/600</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>114.7%</t>
         </is>
       </c>
     </row>
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>834</v>
+        <v>99119</v>
       </c>
       <c r="C18" t="n">
-        <v>834</v>
+        <v>99119</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2/12</t>
+          <t>522/1200</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -1002,42 +1002,4398 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>dataset_2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>555</v>
+      </c>
+      <c r="E2" t="n">
+        <v>951</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dataset_35</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>374</v>
+      </c>
+      <c r="E3" t="n">
+        <v>837</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dataset_5</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>145</v>
+      </c>
+      <c r="D4" t="n">
+        <v>591</v>
+      </c>
+      <c r="E4" t="n">
+        <v>921</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dataset_32</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>196</v>
+      </c>
+      <c r="D5" t="n">
+        <v>848</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dataset_92</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>341</v>
+      </c>
+      <c r="E6" t="n">
+        <v>993</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dataset_66</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>165</v>
+      </c>
+      <c r="D7" t="n">
+        <v>971</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>40.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dataset_59</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>128</v>
+      </c>
+      <c r="D8" t="n">
+        <v>701</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>43.8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dataset_61</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>174</v>
+      </c>
+      <c r="D9" t="n">
+        <v>776</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dataset_95</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>154</v>
+      </c>
+      <c r="D10" t="n">
+        <v>680</v>
+      </c>
+      <c r="E10" t="n">
+        <v>891</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dataset_57</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>182</v>
+      </c>
+      <c r="D11" t="n">
+        <v>911</v>
+      </c>
+      <c r="E11" t="n">
+        <v>910</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>40.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dataset_68</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>174</v>
+      </c>
+      <c r="D12" t="n">
+        <v>435</v>
+      </c>
+      <c r="E12" t="n">
+        <v>871</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dataset_50</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>109</v>
+      </c>
+      <c r="D13" t="n">
+        <v>829</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1096</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dataset_4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>127</v>
+      </c>
+      <c r="D14" t="n">
+        <v>950</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dataset_33</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>309</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1147</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dataset_3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>110</v>
+      </c>
+      <c r="D16" t="n">
+        <v>690</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1072</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dataset_100</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>135</v>
+      </c>
+      <c r="D17" t="n">
+        <v>756</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dataset_34</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>662</v>
+      </c>
+      <c r="E18" t="n">
+        <v>899</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dataset_51</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>116</v>
+      </c>
+      <c r="D19" t="n">
+        <v>549</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dataset_56</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>619</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dataset_69</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>166</v>
+      </c>
+      <c r="D21" t="n">
+        <v>322</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dataset_94</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>107</v>
+      </c>
+      <c r="D22" t="n">
+        <v>377</v>
+      </c>
+      <c r="E22" t="n">
+        <v>869</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>43.8</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dataset_60</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>142</v>
+      </c>
+      <c r="D23" t="n">
+        <v>883</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dataset_67</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>196</v>
+      </c>
+      <c r="D24" t="n">
+        <v>976</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1131</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dataset_93</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>179</v>
+      </c>
+      <c r="D25" t="n">
+        <v>385</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1089</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>dataset_58</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>184</v>
+      </c>
+      <c r="D26" t="n">
+        <v>873</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1166</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>dataset_45</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>121</v>
+      </c>
+      <c r="D27" t="n">
+        <v>563</v>
+      </c>
+      <c r="E27" t="n">
+        <v>997</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>dataset_89</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>153</v>
+      </c>
+      <c r="D28" t="n">
+        <v>993</v>
+      </c>
+      <c r="E28" t="n">
+        <v>938</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>dataset_42</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>111</v>
+      </c>
+      <c r="D29" t="n">
+        <v>728</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1093</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>dataset_80</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>185</v>
+      </c>
+      <c r="D30" t="n">
+        <v>948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>914</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>dataset_74</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>114</v>
+      </c>
+      <c r="D31" t="n">
+        <v>946</v>
+      </c>
+      <c r="E31" t="n">
+        <v>893</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dataset_73</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>128</v>
+      </c>
+      <c r="D32" t="n">
+        <v>532</v>
+      </c>
+      <c r="E32" t="n">
+        <v>977</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dataset_87</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>181</v>
+      </c>
+      <c r="D33" t="n">
+        <v>458</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dataset_27</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>106</v>
+      </c>
+      <c r="D34" t="n">
+        <v>509</v>
+      </c>
+      <c r="E34" t="n">
+        <v>921</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dataset_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>139</v>
+      </c>
+      <c r="D35" t="n">
+        <v>565</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dataset_20</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>185</v>
+      </c>
+      <c r="D36" t="n">
+        <v>779</v>
+      </c>
+      <c r="E36" t="n">
+        <v>818</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>dataset_16</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>102</v>
+      </c>
+      <c r="D37" t="n">
+        <v>487</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dataset_29</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>195</v>
+      </c>
+      <c r="D38" t="n">
+        <v>944</v>
+      </c>
+      <c r="E38" t="n">
+        <v>872</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dataset_11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>154</v>
+      </c>
+      <c r="D39" t="n">
+        <v>566</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1075</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dataset_86</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>145</v>
+      </c>
+      <c r="D40" t="n">
+        <v>423</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dataset_72</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>181</v>
+      </c>
+      <c r="D41" t="n">
+        <v>336</v>
+      </c>
+      <c r="E41" t="n">
+        <v>903</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dataset_75</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>141</v>
+      </c>
+      <c r="D42" t="n">
+        <v>971</v>
+      </c>
+      <c r="E42" t="n">
+        <v>836</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>dataset_81</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>189</v>
+      </c>
+      <c r="D43" t="n">
+        <v>865</v>
+      </c>
+      <c r="E43" t="n">
+        <v>906</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dataset_88</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>129</v>
+      </c>
+      <c r="D44" t="n">
+        <v>742</v>
+      </c>
+      <c r="E44" t="n">
+        <v>893</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>dataset_43</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>184</v>
+      </c>
+      <c r="D45" t="n">
+        <v>603</v>
+      </c>
+      <c r="E45" t="n">
+        <v>977</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dataset_44</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>146</v>
+      </c>
+      <c r="D46" t="n">
+        <v>517</v>
+      </c>
+      <c r="E46" t="n">
+        <v>843</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dataset_10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>126</v>
+      </c>
+      <c r="D47" t="n">
+        <v>918</v>
+      </c>
+      <c r="E47" t="n">
+        <v>911</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>dataset_17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>198</v>
+      </c>
+      <c r="D48" t="n">
+        <v>488</v>
+      </c>
+      <c r="E48" t="n">
+        <v>996</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>45.2</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>dataset_28</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>113</v>
+      </c>
+      <c r="D49" t="n">
+        <v>806</v>
+      </c>
+      <c r="E49" t="n">
+        <v>852</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>dataset_21</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>200</v>
+      </c>
+      <c r="D50" t="n">
+        <v>587</v>
+      </c>
+      <c r="E50" t="n">
+        <v>973</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>dataset_26</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>174</v>
+      </c>
+      <c r="D51" t="n">
+        <v>679</v>
+      </c>
+      <c r="E51" t="n">
+        <v>922</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dataset_19</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>101</v>
+      </c>
+      <c r="D52" t="n">
+        <v>445</v>
+      </c>
+      <c r="E52" t="n">
+        <v>893</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>40.5</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dataset_62</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>129</v>
+      </c>
+      <c r="D53" t="n">
+        <v>866</v>
+      </c>
+      <c r="E53" t="n">
+        <v>999</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>dataset_96</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>115</v>
+      </c>
+      <c r="D54" t="n">
+        <v>330</v>
+      </c>
+      <c r="E54" t="n">
+        <v>923</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>dataset_91</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>178</v>
+      </c>
+      <c r="D55" t="n">
+        <v>435</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1148</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>40.7</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>dataset_65</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>200</v>
+      </c>
+      <c r="D56" t="n">
+        <v>410</v>
+      </c>
+      <c r="E56" t="n">
+        <v>891</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>dataset_53</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>193</v>
+      </c>
+      <c r="D57" t="n">
+        <v>869</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dataset_98</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>181</v>
+      </c>
+      <c r="D58" t="n">
+        <v>937</v>
+      </c>
+      <c r="E58" t="n">
+        <v>884</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dataset_54</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>177</v>
+      </c>
+      <c r="D59" t="n">
+        <v>466</v>
+      </c>
+      <c r="E59" t="n">
+        <v>826</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>dataset_8</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>169</v>
+      </c>
+      <c r="D60" t="n">
+        <v>973</v>
+      </c>
+      <c r="E60" t="n">
+        <v>940</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dataset_38</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>140</v>
+      </c>
+      <c r="D61" t="n">
+        <v>949</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1173</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>dataset_6</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>166</v>
+      </c>
+      <c r="D62" t="n">
+        <v>652</v>
+      </c>
+      <c r="E62" t="n">
+        <v>961</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>43.3</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>dataset_31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>184</v>
+      </c>
+      <c r="D63" t="n">
+        <v>756</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>dataset_1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>179</v>
+      </c>
+      <c r="D64" t="n">
+        <v>591</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dataset_36</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>127</v>
+      </c>
+      <c r="D65" t="n">
+        <v>988</v>
+      </c>
+      <c r="E65" t="n">
+        <v>866</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dataset_55</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>165</v>
+      </c>
+      <c r="D66" t="n">
+        <v>560</v>
+      </c>
+      <c r="E66" t="n">
+        <v>885</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>dataset_52</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="n">
+        <v>117</v>
+      </c>
+      <c r="D67" t="n">
+        <v>947</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dataset_99</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>116</v>
+      </c>
+      <c r="D68" t="n">
+        <v>436</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1168</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>dataset_64</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>186</v>
+      </c>
+      <c r="D69" t="n">
+        <v>922</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>dataset_90</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="n">
+        <v>155</v>
+      </c>
+      <c r="D70" t="n">
+        <v>463</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>41.7</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dataset_97</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>148</v>
+      </c>
+      <c r="D71" t="n">
+        <v>568</v>
+      </c>
+      <c r="E71" t="n">
+        <v>860</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>44.9</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>dataset_63</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>153</v>
+      </c>
+      <c r="D72" t="n">
+        <v>363</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dataset_37</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C73" t="n">
+        <v>166</v>
+      </c>
+      <c r="D73" t="n">
+        <v>615</v>
+      </c>
+      <c r="E73" t="n">
+        <v>906</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>dataset_7</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>185</v>
+      </c>
+      <c r="D74" t="n">
+        <v>752</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dataset_30</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" t="n">
+        <v>113</v>
+      </c>
+      <c r="D75" t="n">
+        <v>846</v>
+      </c>
+      <c r="E75" t="n">
+        <v>930</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dataset_39</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>181</v>
+      </c>
+      <c r="D76" t="n">
+        <v>896</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>dataset_9</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>142</v>
+      </c>
+      <c r="D77" t="n">
+        <v>327</v>
+      </c>
+      <c r="E77" t="n">
+        <v>889</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>dataset_23</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>110</v>
+      </c>
+      <c r="D78" t="n">
+        <v>930</v>
+      </c>
+      <c r="E78" t="n">
+        <v>857</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>41.7</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dataset_24</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>121</v>
+      </c>
+      <c r="D79" t="n">
+        <v>797</v>
+      </c>
+      <c r="E79" t="n">
+        <v>941</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dataset_12</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>160</v>
+      </c>
+      <c r="D80" t="n">
+        <v>649</v>
+      </c>
+      <c r="E80" t="n">
+        <v>942</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>dataset_15</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" t="n">
+        <v>130</v>
+      </c>
+      <c r="D81" t="n">
+        <v>441</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1037</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>dataset_41</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>10</v>
+      </c>
+      <c r="C82" t="n">
+        <v>121</v>
+      </c>
+      <c r="D82" t="n">
+        <v>696</v>
+      </c>
+      <c r="E82" t="n">
+        <v>870</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>dataset_79</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>167</v>
+      </c>
+      <c r="D83" t="n">
+        <v>911</v>
+      </c>
+      <c r="E83" t="n">
+        <v>994</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>dataset_46</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>118</v>
+      </c>
+      <c r="D84" t="n">
+        <v>361</v>
+      </c>
+      <c r="E84" t="n">
+        <v>969</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>dataset_70</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>161</v>
+      </c>
+      <c r="D85" t="n">
+        <v>486</v>
+      </c>
+      <c r="E85" t="n">
+        <v>964</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>dataset_84</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="n">
         <v>133</v>
       </c>
-      <c r="D2" t="n">
-        <v>569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>834</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D86" t="n">
+        <v>406</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1095</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dataset_48</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>114</v>
+      </c>
+      <c r="D87" t="n">
+        <v>336</v>
+      </c>
+      <c r="E87" t="n">
+        <v>850</v>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>dataset_83</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>164</v>
+      </c>
+      <c r="D88" t="n">
+        <v>923</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dataset_77</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>101</v>
+      </c>
+      <c r="D89" t="n">
+        <v>614</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dataset_14</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>10</v>
+      </c>
+      <c r="C90" t="n">
+        <v>101</v>
+      </c>
+      <c r="D90" t="n">
+        <v>551</v>
+      </c>
+      <c r="E90" t="n">
+        <v>838</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dataset_13</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>139</v>
+      </c>
+      <c r="D91" t="n">
+        <v>474</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dataset_25</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>174</v>
+      </c>
+      <c r="D92" t="n">
+        <v>489</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>42.4</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dataset_22</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>116</v>
+      </c>
+      <c r="D93" t="n">
+        <v>919</v>
+      </c>
+      <c r="E93" t="n">
+        <v>963</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>dataset_49</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>111</v>
+      </c>
+      <c r="D94" t="n">
+        <v>843</v>
+      </c>
+      <c r="E94" t="n">
+        <v>814</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>40.8</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>dataset_76</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>171</v>
+      </c>
+      <c r="D95" t="n">
+        <v>954</v>
+      </c>
+      <c r="E95" t="n">
+        <v>901</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dataset_82</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" t="n">
+        <v>149</v>
+      </c>
+      <c r="D96" t="n">
+        <v>560</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dataset_85</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>101</v>
+      </c>
+      <c r="D97" t="n">
+        <v>373</v>
+      </c>
+      <c r="E97" t="n">
+        <v>961</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dataset_71</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>127</v>
+      </c>
+      <c r="D98" t="n">
+        <v>806</v>
+      </c>
+      <c r="E98" t="n">
+        <v>983</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>dataset_78</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>191</v>
+      </c>
+      <c r="D99" t="n">
+        <v>595</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>dataset_47</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124</v>
+      </c>
+      <c r="D100" t="n">
+        <v>796</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>42.8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>no_primers</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>dataset_40</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>105</v>
+      </c>
+      <c r="D101" t="n">
+        <v>355</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>43.7</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>6.5%</t>
         </is>

--- a/test_data/test_datasets_report.xlsx
+++ b/test_data/test_datasets_report.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -510,19 +510,19 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>103.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.0%</t>
+          <t>98.3%</t>
         </is>
       </c>
     </row>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>215.0%</t>
+          <t>241.0%</t>
         </is>
       </c>
     </row>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>103.3%</t>
+          <t>101.9%</t>
         </is>
       </c>
     </row>
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>129.1%</t>
+          <t>101.8%</t>
         </is>
       </c>
     </row>
@@ -741,13 +741,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>173.0%</t>
+          <t>155.6%</t>
         </is>
       </c>
     </row>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>103.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C16" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>111.6%</t>
         </is>
       </c>
     </row>
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C17" t="n">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>-27</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100.6%</t>
+          <t>92.1%</t>
         </is>
       </c>
     </row>
@@ -897,17 +897,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="C18" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4/12</t>
+          <t>5/12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1006,30 +1006,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="D2" t="n">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="E2" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>6.8%</t>
         </is>
       </c>
     </row>

--- a/test_data/test_datasets_report.xlsx
+++ b/test_data/test_datasets_report.xlsx
@@ -481,17 +481,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265</v>
+        <v>28729</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>28737</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>6418</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>6443</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>77/100</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100.4%</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>6410</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>6051</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-359</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>4/100</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>98.3%</t>
+          <t>94.4%</t>
         </is>
       </c>
     </row>
@@ -559,22 +559,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>6440</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6692</v>
       </c>
       <c r="D5" t="n">
-        <v>-59</v>
+        <v>252</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>3/100</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>103.9%</t>
         </is>
       </c>
     </row>
@@ -585,22 +585,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>6382</v>
       </c>
       <c r="C6" t="n">
-        <v>147</v>
+        <v>8247</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>1865</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>241.0%</t>
+          <t>129.2%</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>6367</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>6398</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>76/100</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>101.9%</t>
+          <t>100.5%</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>6420</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>6420</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -663,17 +663,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>6387</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>6387</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -689,17 +689,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>6438</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>6438</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>100/100</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -715,22 +715,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>6398</v>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>6795</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>6/100</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>101.8%</t>
+          <t>106.2%</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58</v>
+        <v>6434</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="D12" t="n">
-        <v>-58</v>
+        <v>-323</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>3/100</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>95.0%</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54</v>
+        <v>6398</v>
       </c>
       <c r="C13" t="n">
-        <v>84</v>
+        <v>4502</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>-1896</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/100</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>155.6%</t>
+          <t>70.4%</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>28729</v>
       </c>
       <c r="C14" t="n">
-        <v>265</v>
+        <v>28737</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -819,22 +819,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>6418</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>6443</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>77/100</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100.4%</t>
         </is>
       </c>
     </row>
@@ -845,22 +845,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>232</v>
+        <v>25599</v>
       </c>
       <c r="C16" t="n">
-        <v>259</v>
+        <v>27388</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>1789</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>83/400</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>111.6%</t>
+          <t>107.0%</t>
         </is>
       </c>
     </row>
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343</v>
+        <v>38475</v>
       </c>
       <c r="C17" t="n">
-        <v>316</v>
+        <v>36653</v>
       </c>
       <c r="D17" t="n">
-        <v>-27</v>
+        <v>-1822</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/6</t>
+          <t>309/600</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>92.1%</t>
+          <t>95.3%</t>
         </is>
       </c>
     </row>
@@ -897,17 +897,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900</v>
+        <v>99221</v>
       </c>
       <c r="C18" t="n">
-        <v>900</v>
+        <v>99221</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5/12</t>
+          <t>562/1200</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -927,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -1002,44 +1002,4400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>dataset_2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>623</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dataset_35</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>693</v>
+      </c>
+      <c r="E3" t="n">
+        <v>850</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dataset_5</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>696</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dataset_32</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>494</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dataset_92</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>162</v>
+      </c>
+      <c r="D6" t="n">
+        <v>737</v>
+      </c>
+      <c r="E6" t="n">
+        <v>992</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dataset_66</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>189</v>
+      </c>
+      <c r="D7" t="n">
+        <v>766</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dataset_59</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>158</v>
+      </c>
+      <c r="D8" t="n">
+        <v>642</v>
+      </c>
+      <c r="E8" t="n">
+        <v>808</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dataset_61</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>142</v>
+      </c>
+      <c r="D9" t="n">
+        <v>375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1137</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dataset_95</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>119</v>
+      </c>
+      <c r="D10" t="n">
+        <v>340</v>
+      </c>
+      <c r="E10" t="n">
+        <v>865</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>40.7</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dataset_57</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>108</v>
+      </c>
+      <c r="D11" t="n">
+        <v>860</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dataset_68</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>102</v>
+      </c>
+      <c r="D12" t="n">
+        <v>655</v>
+      </c>
+      <c r="E12" t="n">
+        <v>886</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dataset_50</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>130</v>
+      </c>
+      <c r="D13" t="n">
+        <v>804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>816</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dataset_4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>161</v>
+      </c>
+      <c r="D14" t="n">
+        <v>332</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1098</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>40.2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dataset_33</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>154</v>
+      </c>
+      <c r="D15" t="n">
+        <v>502</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dataset_3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>168</v>
+      </c>
+      <c r="D16" t="n">
+        <v>756</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dataset_100</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>145</v>
+      </c>
+      <c r="D17" t="n">
+        <v>900</v>
+      </c>
+      <c r="E17" t="n">
+        <v>837</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dataset_34</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>805</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>41.7</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dataset_51</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>152</v>
+      </c>
+      <c r="D19" t="n">
+        <v>919</v>
+      </c>
+      <c r="E19" t="n">
+        <v>944</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dataset_56</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>150</v>
+      </c>
+      <c r="D20" t="n">
+        <v>474</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1138</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dataset_69</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>190</v>
+      </c>
+      <c r="D21" t="n">
+        <v>572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dataset_94</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>189</v>
+      </c>
+      <c r="D22" t="n">
+        <v>372</v>
+      </c>
+      <c r="E22" t="n">
+        <v>823</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dataset_60</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>134</v>
+      </c>
+      <c r="D23" t="n">
+        <v>853</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1193</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dataset_67</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>194</v>
+      </c>
+      <c r="D24" t="n">
+        <v>814</v>
+      </c>
+      <c r="E24" t="n">
+        <v>950</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dataset_93</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>191</v>
+      </c>
+      <c r="D25" t="n">
+        <v>780</v>
+      </c>
+      <c r="E25" t="n">
+        <v>829</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>dataset_58</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>131</v>
+      </c>
+      <c r="D26" t="n">
+        <v>614</v>
+      </c>
+      <c r="E26" t="n">
+        <v>803</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>dataset_45</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>122</v>
+      </c>
+      <c r="D27" t="n">
+        <v>747</v>
+      </c>
+      <c r="E27" t="n">
+        <v>810</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>dataset_89</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>146</v>
+      </c>
+      <c r="D28" t="n">
+        <v>617</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>dataset_42</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>111</v>
+      </c>
+      <c r="D29" t="n">
+        <v>410</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>dataset_80</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>184</v>
+      </c>
+      <c r="D30" t="n">
+        <v>560</v>
+      </c>
+      <c r="E30" t="n">
+        <v>835</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>43.8</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>dataset_74</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100</v>
+      </c>
+      <c r="D31" t="n">
+        <v>916</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1198</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dataset_73</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>158</v>
+      </c>
+      <c r="D32" t="n">
+        <v>483</v>
+      </c>
+      <c r="E32" t="n">
+        <v>820</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dataset_87</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>178</v>
+      </c>
+      <c r="D33" t="n">
+        <v>303</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1078</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dataset_27</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>190</v>
+      </c>
+      <c r="D34" t="n">
+        <v>634</v>
+      </c>
+      <c r="E34" t="n">
+        <v>885</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dataset_18</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>183</v>
+      </c>
+      <c r="D35" t="n">
+        <v>665</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1125</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dataset_20</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>138</v>
+      </c>
+      <c r="D36" t="n">
+        <v>551</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1133</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>dataset_16</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>135</v>
+      </c>
+      <c r="D37" t="n">
+        <v>745</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1133</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dataset_29</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>152</v>
+      </c>
+      <c r="D38" t="n">
+        <v>857</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1087</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>40.8</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dataset_11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>159</v>
+      </c>
+      <c r="D39" t="n">
+        <v>404</v>
+      </c>
+      <c r="E39" t="n">
+        <v>956</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dataset_86</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>197</v>
+      </c>
+      <c r="D40" t="n">
+        <v>390</v>
+      </c>
+      <c r="E40" t="n">
+        <v>953</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>44.7</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dataset_72</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>104</v>
+      </c>
+      <c r="D41" t="n">
+        <v>769</v>
+      </c>
+      <c r="E41" t="n">
+        <v>886</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dataset_75</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>143</v>
+      </c>
+      <c r="D42" t="n">
+        <v>313</v>
+      </c>
+      <c r="E42" t="n">
+        <v>858</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>dataset_81</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>156</v>
+      </c>
+      <c r="D43" t="n">
+        <v>993</v>
+      </c>
+      <c r="E43" t="n">
+        <v>887</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dataset_88</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>104</v>
+      </c>
+      <c r="D44" t="n">
+        <v>827</v>
+      </c>
+      <c r="E44" t="n">
+        <v>984</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>dataset_43</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>137</v>
+      </c>
+      <c r="D45" t="n">
+        <v>486</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dataset_44</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>181</v>
+      </c>
+      <c r="D46" t="n">
+        <v>441</v>
+      </c>
+      <c r="E46" t="n">
+        <v>879</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>45.4</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dataset_10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>153</v>
+      </c>
+      <c r="D47" t="n">
+        <v>408</v>
+      </c>
+      <c r="E47" t="n">
+        <v>912</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>dataset_17</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>116</v>
+      </c>
+      <c r="D48" t="n">
+        <v>353</v>
+      </c>
+      <c r="E48" t="n">
+        <v>937</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>dataset_28</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>173</v>
+      </c>
+      <c r="D49" t="n">
+        <v>838</v>
+      </c>
+      <c r="E49" t="n">
+        <v>877</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>dataset_21</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>115</v>
+      </c>
+      <c r="D50" t="n">
+        <v>401</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1009</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>42.1</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>dataset_26</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>149</v>
+      </c>
+      <c r="D51" t="n">
+        <v>532</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1149</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dataset_19</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>188</v>
+      </c>
+      <c r="D52" t="n">
+        <v>539</v>
+      </c>
+      <c r="E52" t="n">
+        <v>803</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dataset_62</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>164</v>
+      </c>
+      <c r="D53" t="n">
+        <v>608</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>dataset_96</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>112</v>
+      </c>
+      <c r="D54" t="n">
+        <v>645</v>
+      </c>
+      <c r="E54" t="n">
+        <v>806</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>dataset_91</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>140</v>
+      </c>
+      <c r="D55" t="n">
+        <v>386</v>
+      </c>
+      <c r="E55" t="n">
+        <v>988</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>40.4</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>dataset_65</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>132</v>
+      </c>
+      <c r="D56" t="n">
+        <v>527</v>
+      </c>
+      <c r="E56" t="n">
+        <v>984</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>dataset_53</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>105</v>
+      </c>
+      <c r="D57" t="n">
+        <v>378</v>
+      </c>
+      <c r="E57" t="n">
+        <v>839</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dataset_98</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>191</v>
+      </c>
+      <c r="D58" t="n">
+        <v>415</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1122</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>42.4</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dataset_54</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>165</v>
+      </c>
+      <c r="D59" t="n">
+        <v>646</v>
+      </c>
+      <c r="E59" t="n">
+        <v>922</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>dataset_8</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>121</v>
+      </c>
+      <c r="D60" t="n">
+        <v>831</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dataset_38</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>183</v>
+      </c>
+      <c r="D61" t="n">
+        <v>487</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1069</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>44.4</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>dataset_6</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>169</v>
+      </c>
+      <c r="D62" t="n">
+        <v>952</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>dataset_31</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>151</v>
+      </c>
+      <c r="D63" t="n">
+        <v>825</v>
+      </c>
+      <c r="E63" t="n">
+        <v>971</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>dataset_1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>102</v>
+      </c>
+      <c r="D64" t="n">
+        <v>383</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dataset_36</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>163</v>
+      </c>
+      <c r="D65" t="n">
+        <v>941</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dataset_55</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>182</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492</v>
-      </c>
-      <c r="E2" t="n">
-        <v>900</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="C66" t="n">
+        <v>156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>440</v>
+      </c>
+      <c r="E66" t="n">
+        <v>804</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>43.8</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>dataset_52</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>153</v>
+      </c>
+      <c r="D67" t="n">
+        <v>451</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dataset_99</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="n">
+        <v>104</v>
+      </c>
+      <c r="D68" t="n">
+        <v>715</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>dataset_64</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>161</v>
+      </c>
+      <c r="D69" t="n">
+        <v>831</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1146</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>dataset_90</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>123</v>
+      </c>
+      <c r="D70" t="n">
+        <v>826</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>44.4</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dataset_97</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>158</v>
+      </c>
+      <c r="D71" t="n">
+        <v>876</v>
+      </c>
+      <c r="E71" t="n">
+        <v>887</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>dataset_63</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="n">
+        <v>170</v>
+      </c>
+      <c r="D72" t="n">
+        <v>796</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1183</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dataset_37</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>177</v>
+      </c>
+      <c r="D73" t="n">
+        <v>557</v>
+      </c>
+      <c r="E73" t="n">
+        <v>942</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>dataset_7</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>150</v>
+      </c>
+      <c r="D74" t="n">
+        <v>507</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dataset_30</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>117</v>
+      </c>
+      <c r="D75" t="n">
+        <v>852</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1164</v>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>45.2</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dataset_39</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>132</v>
+      </c>
+      <c r="D76" t="n">
+        <v>593</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>42.2</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>dataset_9</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>131</v>
+      </c>
+      <c r="D77" t="n">
+        <v>635</v>
+      </c>
+      <c r="E77" t="n">
+        <v>934</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>42.4</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>dataset_23</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>881</v>
+      </c>
+      <c r="E78" t="n">
+        <v>858</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dataset_24</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>112</v>
+      </c>
+      <c r="D79" t="n">
+        <v>341</v>
+      </c>
+      <c r="E79" t="n">
+        <v>838</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dataset_12</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>141</v>
+      </c>
+      <c r="D80" t="n">
+        <v>499</v>
+      </c>
+      <c r="E80" t="n">
+        <v>926</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>dataset_15</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>102</v>
+      </c>
+      <c r="D81" t="n">
+        <v>990</v>
+      </c>
+      <c r="E81" t="n">
+        <v>999</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>dataset_41</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>196</v>
+      </c>
+      <c r="D82" t="n">
+        <v>706</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>dataset_79</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" t="n">
+        <v>147</v>
+      </c>
+      <c r="D83" t="n">
+        <v>476</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>44.3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>dataset_46</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>177</v>
+      </c>
+      <c r="D84" t="n">
+        <v>377</v>
+      </c>
+      <c r="E84" t="n">
+        <v>983</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>dataset_70</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>142</v>
+      </c>
+      <c r="D85" t="n">
+        <v>884</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1134</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>dataset_84</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>191</v>
+      </c>
+      <c r="D86" t="n">
+        <v>888</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dataset_48</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>165</v>
+      </c>
+      <c r="D87" t="n">
+        <v>842</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>43.6</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>dataset_83</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>158</v>
+      </c>
+      <c r="D88" t="n">
+        <v>606</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dataset_77</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>179</v>
+      </c>
+      <c r="D89" t="n">
+        <v>474</v>
+      </c>
+      <c r="E89" t="n">
+        <v>876</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dataset_14</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>166</v>
+      </c>
+      <c r="D90" t="n">
+        <v>824</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>41.5</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dataset_13</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" t="n">
+        <v>119</v>
+      </c>
+      <c r="D91" t="n">
+        <v>515</v>
+      </c>
+      <c r="E91" t="n">
+        <v>836</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>41.8</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dataset_25</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>196</v>
+      </c>
+      <c r="D92" t="n">
+        <v>337</v>
+      </c>
+      <c r="E92" t="n">
+        <v>998</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dataset_22</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>139</v>
+      </c>
+      <c r="D93" t="n">
+        <v>865</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1147</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>40.8</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>dataset_49</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" t="n">
+        <v>120</v>
+      </c>
+      <c r="D94" t="n">
+        <v>498</v>
+      </c>
+      <c r="E94" t="n">
+        <v>976</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>dataset_76</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>113</v>
+      </c>
+      <c r="D95" t="n">
+        <v>961</v>
+      </c>
+      <c r="E95" t="n">
+        <v>861</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>44.6</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>no_primers</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>6.8%</t>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dataset_82</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>150</v>
+      </c>
+      <c r="D96" t="n">
+        <v>787</v>
+      </c>
+      <c r="E96" t="n">
+        <v>876</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dataset_85</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>162</v>
+      </c>
+      <c r="D97" t="n">
+        <v>613</v>
+      </c>
+      <c r="E97" t="n">
+        <v>846</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>40.9</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dataset_71</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>126</v>
+      </c>
+      <c r="D98" t="n">
+        <v>356</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>dataset_78</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>158</v>
+      </c>
+      <c r="D99" t="n">
+        <v>643</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>dataset_47</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>150</v>
+      </c>
+      <c r="D100" t="n">
+        <v>731</v>
+      </c>
+      <c r="E100" t="n">
+        <v>817</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>dataset_40</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>160</v>
+      </c>
+      <c r="D101" t="n">
+        <v>854</v>
+      </c>
+      <c r="E101" t="n">
+        <v>950</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>45.4</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>no_primers</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>7.0%</t>
         </is>
       </c>
     </row>
